--- a/output/part1/grs_size_bm_op2.xlsx
+++ b/output/part1/grs_size_bm_op2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.440645142897782</v>
+        <v>11.55418027109837</v>
       </c>
       <c r="C2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08606201236512735</v>
+        <v>0.006844427974319675</v>
       </c>
       <c r="E2" t="n">
-        <v>-27.93905845498791</v>
+        <v>1.159950107606476</v>
       </c>
       <c r="F2" t="n">
-        <v>780.5909873512314</v>
+        <v>1.345484252136276</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.0690315496028</v>
+        <v>11.5575747443692</v>
       </c>
       <c r="C3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08645894504287813</v>
+        <v>0.006833404722591967</v>
       </c>
       <c r="E3" t="n">
-        <v>-28.0679181572143</v>
+        <v>1.158081957035573</v>
       </c>
       <c r="F3" t="n">
-        <v>787.80802968008</v>
+        <v>1.341153819211343</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.462591454767141</v>
+        <v>11.43594773668599</v>
       </c>
       <c r="C4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08556585218713619</v>
+        <v>0.006859220858480134</v>
       </c>
       <c r="E4" t="n">
-        <v>-27.77798566764568</v>
+        <v>1.162457111499002</v>
       </c>
       <c r="F4" t="n">
-        <v>771.6164877519292</v>
+        <v>1.351306536074604</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.34340736350786</v>
+        <v>11.35588598269685</v>
       </c>
       <c r="C5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09234986030447571</v>
+        <v>0.007117919130883461</v>
       </c>
       <c r="E5" t="n">
-        <v>-29.98033713655304</v>
+        <v>1.206299648821002</v>
       </c>
       <c r="F5" t="n">
-        <v>898.8206148213814</v>
+        <v>1.455158842745673</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.20071062965286</v>
+        <v>11.43882831403803</v>
       </c>
       <c r="C6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08665184008606384</v>
+        <v>0.006850669970385716</v>
       </c>
       <c r="E6" t="n">
-        <v>-28.13053935022543</v>
+        <v>1.161007961387048</v>
       </c>
       <c r="F6" t="n">
-        <v>791.3272441345813</v>
+        <v>1.347939486404109</v>
       </c>
     </row>
   </sheetData>
